--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>165.8425359564111</v>
+        <v>0.2122262448905556</v>
       </c>
       <c r="R2">
-        <v>1492.5828236077</v>
+        <v>1.910036204015</v>
       </c>
       <c r="S2">
-        <v>0.2252471739205623</v>
+        <v>0.01088994137439128</v>
       </c>
       <c r="T2">
-        <v>0.2252471739205623</v>
+        <v>0.01088994137439128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
-        <v>322.4226075905267</v>
+        <v>0.5720960719983333</v>
       </c>
       <c r="R3">
-        <v>2901.80346831474</v>
+        <v>5.148864647985</v>
       </c>
       <c r="S3">
-        <v>0.4379140776462364</v>
+        <v>0.02935590123546795</v>
       </c>
       <c r="T3">
-        <v>0.4379140776462364</v>
+        <v>0.02935590123546795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>217.6560553802067</v>
+        <v>0.4217057686916666</v>
       </c>
       <c r="R4">
-        <v>1958.90449842186</v>
+        <v>3.795351918225</v>
       </c>
       <c r="S4">
-        <v>0.2956202465088614</v>
+        <v>0.02163894055922783</v>
       </c>
       <c r="T4">
-        <v>0.2956202465088613</v>
+        <v>0.02163894055922782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>2.037521947471667</v>
+        <v>1.469474233325667</v>
       </c>
       <c r="R5">
-        <v>18.337697527245</v>
+        <v>13.225268099931</v>
       </c>
       <c r="S5">
-        <v>0.002767360362782558</v>
+        <v>0.07540296564332805</v>
       </c>
       <c r="T5">
-        <v>0.002767360362782558</v>
+        <v>0.07540296564332803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
         <v>3.961246344541</v>
@@ -818,10 +818,10 @@
         <v>35.651217100869</v>
       </c>
       <c r="S6">
-        <v>0.005380161001309901</v>
+        <v>0.2032629870250932</v>
       </c>
       <c r="T6">
-        <v>0.005380161001309901</v>
+        <v>0.2032629870250932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>2.674096770649</v>
+        <v>2.919929914685</v>
       </c>
       <c r="R7">
-        <v>24.066870935841</v>
+        <v>26.279369232165</v>
       </c>
       <c r="S7">
-        <v>0.003631955679555589</v>
+        <v>0.1498300344740541</v>
       </c>
       <c r="T7">
-        <v>0.003631955679555589</v>
+        <v>0.149830034474054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H8">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N8">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q8">
-        <v>5.092132620515557</v>
+        <v>1.747676406093</v>
       </c>
       <c r="R8">
-        <v>45.82919358464</v>
+        <v>15.729087654837</v>
       </c>
       <c r="S8">
-        <v>0.006916129661097937</v>
+        <v>0.08967832236571126</v>
       </c>
       <c r="T8">
-        <v>0.006916129661097936</v>
+        <v>0.08967832236571124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H9">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.713403</v>
       </c>
       <c r="O9">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P9">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q9">
-        <v>9.899864761685334</v>
+        <v>4.711193036307</v>
       </c>
       <c r="R9">
-        <v>89.098782855168</v>
+        <v>42.40073732676301</v>
       </c>
       <c r="S9">
-        <v>0.01344598686281231</v>
+        <v>0.2417449170590627</v>
       </c>
       <c r="T9">
-        <v>0.01344598686281231</v>
+        <v>0.2417449170590627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H10">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N10">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P10">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q10">
-        <v>6.683047224661335</v>
+        <v>3.472733650995</v>
       </c>
       <c r="R10">
-        <v>60.14742502195201</v>
+        <v>31.254602858955</v>
       </c>
       <c r="S10">
-        <v>0.009076908356781731</v>
+        <v>0.1781959902636637</v>
       </c>
       <c r="T10">
-        <v>0.009076908356781731</v>
+        <v>0.1781959902636636</v>
       </c>
     </row>
   </sheetData>
